--- a/Gene_list_vision.xlsx
+++ b/Gene_list_vision.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="280" windowWidth="28280" windowHeight="17820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="9100" yWindow="1780" windowWidth="20940" windowHeight="17820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Photo vis cycle" sheetId="1" r:id="rId1"/>
@@ -777,8 +777,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -887,7 +905,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -906,6 +924,15 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -924,6 +951,15 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1256,7 +1292,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2214,7 +2250,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2443,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2539,6 +2575,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2551,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2958,6 +2995,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
